--- a/NOVEMBER/NOVEMBER FLOOR.xlsx
+++ b/NOVEMBER/NOVEMBER FLOOR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19635" windowHeight="7500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Anugrah (Bag, Cup, Box)" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,63 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_77CE357CEE334F6D961BD6780F917C7B" descr="WhatsApp Image 2025-11-17 at 19.55.24_b4d82a76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="2094" t="17062" b="13764"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7059930" y="-55880"/>
+          <a:ext cx="3651885" cy="4540885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_53A5575CEC60468792705E317509501C" descr="WhatsApp Image 2025-11-17 at 19.55.38_dd252dd0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect l="877" t="19263" b="10630"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7574915" y="3136900"/>
+          <a:ext cx="3300730" cy="4071620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>DATE</t>
   </si>
@@ -89,6 +141,12 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>HAND GLOVES (M)</t>
+  </si>
+  <si>
+    <t>P KILAT 2</t>
   </si>
   <si>
     <t>SO05LC2511000989/00</t>
@@ -965,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1049,9 +1107,6 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1160,19 +1215,10 @@
     <xf numFmtId="180" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,6 +1263,9 @@
     <xf numFmtId="181" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,6 +1276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,233 +1641,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.4285714285714" style="62"/>
-    <col min="2" max="2" width="13.4285714285714" style="62" customWidth="1"/>
-    <col min="3" max="3" width="36" style="62" customWidth="1"/>
-    <col min="4" max="4" width="21.2857142857143" style="63" customWidth="1"/>
-    <col min="5" max="5" width="33.2857142857143" style="62" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" style="62" customWidth="1"/>
-    <col min="7" max="8" width="20.8571428571429" style="62" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" style="62"/>
-    <col min="10" max="10" width="9.14285714285714" style="62"/>
-    <col min="11" max="16384" width="18.0380952380952" style="62"/>
+    <col min="1" max="1" width="17.4285714285714" style="61"/>
+    <col min="2" max="2" width="13.4285714285714" style="61" customWidth="1"/>
+    <col min="3" max="3" width="36" style="61" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" style="62" customWidth="1"/>
+    <col min="5" max="5" width="33.2857142857143" style="61" customWidth="1"/>
+    <col min="6" max="6" width="17.2857142857143" style="61" customWidth="1"/>
+    <col min="7" max="8" width="20.8571428571429" style="61" customWidth="1"/>
+    <col min="9" max="9" width="12.8571428571429" style="61"/>
+    <col min="10" max="10" width="9.14285714285714" style="61"/>
+    <col min="11" max="16384" width="18.0380952380952" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="61" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A1" s="85" t="s">
+    <row r="1" s="60" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A2" s="87"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="75">
+    <row r="2" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A2" s="83"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="72">
         <f t="shared" ref="G2:G14" si="0">SUM(D2*F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="72">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A3" s="90"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="75">
+    <row r="3" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A3" s="86"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="91"/>
-    </row>
-    <row r="4" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A4" s="90"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="75">
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A4" s="86"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="91"/>
-    </row>
-    <row r="5" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A5" s="90"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75">
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A5" s="86"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="91"/>
-    </row>
-    <row r="6" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A6" s="90"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75">
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A6" s="86"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A7" s="90"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="75">
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A7" s="86"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="91"/>
-    </row>
-    <row r="8" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A8" s="90"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="75">
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A8" s="86"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="91"/>
-    </row>
-    <row r="9" s="61" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
-      <c r="A9" s="90"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="75">
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" s="60" customFormat="1" ht="32.15" customHeight="1" spans="1:8">
+      <c r="A9" s="86"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" s="61" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
-      <c r="A10" s="87"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75">
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" s="60" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
+      <c r="A10" s="83"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="72">
         <f>SUM(G10:G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="61" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
-      <c r="A11" s="90"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="75">
+    <row r="11" s="60" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
+      <c r="A11" s="86"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="91"/>
-    </row>
-    <row r="12" s="61" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
-      <c r="A12" s="90"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="75">
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" s="60" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
+      <c r="A12" s="86"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="91"/>
-    </row>
-    <row r="13" s="61" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
-      <c r="A13" s="90"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="75">
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13" s="60" customFormat="1" ht="64.3" customHeight="1" spans="1:8">
+      <c r="A13" s="86"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="91"/>
-    </row>
-    <row r="14" s="61" customFormat="1" ht="258" customHeight="1" spans="1:8">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="70">
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14" s="60" customFormat="1" ht="258" customHeight="1" spans="1:8">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <f>SUM(G14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="61" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A15" s="99" t="s">
+    <row r="15" s="60" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A15" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105">
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103">
         <f>SUM(H2:H14)</f>
         <v>0</v>
       </c>
@@ -1840,234 +1892,170 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="A2:F9"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.8571428571429" style="62"/>
-    <col min="2" max="2" width="18.8571428571429" style="62" customWidth="1"/>
-    <col min="3" max="3" width="43.0380952380952" style="62" customWidth="1"/>
-    <col min="4" max="4" width="14.4285714285714" style="63" customWidth="1"/>
-    <col min="5" max="5" width="58.9619047619048" style="62" customWidth="1"/>
-    <col min="6" max="6" width="19.5238095238095" style="62" customWidth="1"/>
-    <col min="7" max="8" width="20.8571428571429" style="62" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" style="62"/>
-    <col min="10" max="16384" width="9.14285714285714" style="62"/>
+    <col min="1" max="1" width="19.8571428571429" style="61"/>
+    <col min="2" max="2" width="18.8571428571429" style="61" customWidth="1"/>
+    <col min="3" max="3" width="43.0380952380952" style="61" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" style="62" customWidth="1"/>
+    <col min="5" max="5" width="58.9619047619048" style="61" customWidth="1"/>
+    <col min="6" max="6" width="19.5238095238095" style="61" customWidth="1"/>
+    <col min="7" max="8" width="20.8571428571429" style="61" customWidth="1"/>
+    <col min="9" max="9" width="12.8571428571429" style="61"/>
+    <col min="10" max="16384" width="9.14285714285714" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="61" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+    <row r="1" s="60" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="61" customFormat="1" ht="40" customHeight="1" spans="1:9">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71">
-        <f t="shared" ref="G2:G9" si="0">D2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="70">
-        <f>SUM(G2:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="61">
-        <f>780000/50</f>
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="3" s="61" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="68"/>
-    </row>
-    <row r="4" s="61" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="72"/>
+    <row r="2" s="60" customFormat="1" ht="249.35" spans="1:8">
+      <c r="A2" s="65">
+        <v>45975</v>
+      </c>
+      <c r="B2" s="66">
+        <v>221</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="67">
+        <v>3</v>
+      </c>
+      <c r="E2" s="68" t="str">
+        <f>_xlfn.DISPIMG("ID_77CE357CEE334F6D961BD6780F917C7B",1)</f>
+        <v>=DISPIMG("ID_77CE357CEE334F6D961BD6780F917C7B",1)</v>
+      </c>
+      <c r="F2" s="69">
+        <v>55000</v>
+      </c>
+      <c r="G2" s="70">
+        <f>D2*F2</f>
+        <v>165000</v>
+      </c>
+      <c r="H2" s="69">
+        <f>SUM(G2:G2)</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="3" s="60" customFormat="1" ht="251.35" spans="1:8">
+      <c r="A3" s="65">
+        <v>45976</v>
+      </c>
+      <c r="B3" s="66">
+        <v>254</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="67">
+        <v>5</v>
+      </c>
+      <c r="E3" s="68" t="str">
+        <f>_xlfn.DISPIMG("ID_53A5575CEC60468792705E317509501C",1)</f>
+        <v>=DISPIMG("ID_53A5575CEC60468792705E317509501C",1)</v>
+      </c>
+      <c r="F3" s="70">
+        <v>13000</v>
+      </c>
+      <c r="G3" s="70">
+        <f>D3*F3</f>
+        <v>65000</v>
+      </c>
+      <c r="H3" s="72">
+        <f>SUM(G3:G3)</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="4" s="60" customFormat="1" ht="60" customHeight="1" spans="1:8">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="70"/>
-      <c r="G4" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="68"/>
-    </row>
-    <row r="5" s="61" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="68"/>
-    </row>
-    <row r="6" s="61" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="68"/>
-    </row>
-    <row r="7" s="61" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="68"/>
-    </row>
-    <row r="8" s="61" customFormat="1" ht="100" customHeight="1" spans="1:8">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="75">
-        <f>SUM(G8:G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="61" customFormat="1" ht="100" customHeight="1" spans="1:8">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="76"/>
-    </row>
-    <row r="10" s="61" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-    </row>
-    <row r="11" s="61" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-    </row>
-    <row r="12" s="61" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-    </row>
-    <row r="13" s="61" customFormat="1" ht="200" customHeight="1" spans="1:8">
-      <c r="A13" s="77"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" s="61" customFormat="1" spans="1:8">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84">
-        <f>SUM(H2:H13)</f>
-        <v>0</v>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+    </row>
+    <row r="5" s="60" customFormat="1" ht="60" customHeight="1" spans="1:8">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+    </row>
+    <row r="6" s="60" customFormat="1" ht="60" customHeight="1" spans="1:8">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" s="60" customFormat="1" ht="200" customHeight="1" spans="1:8">
+      <c r="A7" s="73"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" s="60" customFormat="1" spans="1:8">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80">
+        <f>SUM(H2:H7)</f>
+        <v>230000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="H8:H9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2079,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2122,10 +2110,10 @@
         <v>45968</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="27">
         <v>40</v>
@@ -2143,149 +2131,149 @@
       </c>
     </row>
     <row r="3" ht="123.5" customHeight="1" spans="1:7">
-      <c r="A3" s="31"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31"/>
-      <c r="B4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36">
+      <c r="A4" s="25"/>
+      <c r="B4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35">
         <f>SUM(G2:G3)</f>
         <v>242558.4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36">
+      <c r="A5" s="25"/>
+      <c r="B5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35">
         <f>G4*11%</f>
         <v>26681.424</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37">
+      <c r="A6" s="25"/>
+      <c r="B6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="25"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37">
         <v>269482</v>
       </c>
     </row>
     <row r="8" ht="123.5" customHeight="1" spans="1:7">
       <c r="A8" s="25"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" ht="123.5" customHeight="1" spans="1:7">
       <c r="A9" s="25"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46"/>
-      <c r="B10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="A10" s="45"/>
+      <c r="B10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35">
         <f>SUM(G8:G9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46"/>
-      <c r="B12" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="38">
+      <c r="C13" s="52"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="37">
         <f>SUM(G10:G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57">
         <f>G7+G13</f>
         <v>269482</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2350,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="200" customHeight="1" spans="1:5">
@@ -2604,13 +2592,13 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2618,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <f>'Anugrah (Bag, Cup, Box)'!H15</f>
@@ -2630,11 +2618,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
-        <f>'UD Abdi Jaya (Bag, Cup, Box)'!H14</f>
-        <v>0</v>
+        <f>'UD Abdi Jaya (Bag, Cup, Box)'!H8</f>
+        <v>230000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2642,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <f>'PT. SUPARMA JAYA TBK (Tissue)'!E14</f>
@@ -2654,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5">
         <f>'Vickel Laundry'!C32</f>
@@ -2668,7 +2656,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="6">
         <f>SUM(C2:C5)</f>
-        <v>269482</v>
+        <v>499482</v>
       </c>
     </row>
   </sheetData>

--- a/NOVEMBER/NOVEMBER FLOOR.xlsx
+++ b/NOVEMBER/NOVEMBER FLOOR.xlsx
@@ -1897,7 +1897,7 @@
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelRow="7" outlineLevelCol="7"/>
